--- a/reports/Debug-snowbowl-20251217/For The Day (Actual)_Visits.xlsx
+++ b/reports/Debug-snowbowl-20251217/For The Day (Actual)_Visits.xlsx
@@ -34,13 +34,13 @@
     <t>Snowbowl Passes</t>
   </si>
   <si>
+    <t>Snowbowl Uplift Tickets</t>
+  </si>
+  <si>
+    <t>Snowbowl Comp Tickets</t>
+  </si>
+  <si>
     <t>Snowbowl Tickets</t>
-  </si>
-  <si>
-    <t>Snowbowl Comp Tickets</t>
-  </si>
-  <si>
-    <t>Snowbowl Uplift Tickets</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
         <v>46008</v>
       </c>
       <c r="C2" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -451,7 +451,7 @@
         <v>46008</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -465,7 +465,7 @@
         <v>46008</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -479,10 +479,10 @@
         <v>46008</v>
       </c>
       <c r="C5" s="2">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -493,7 +493,7 @@
         <v>46008</v>
       </c>
       <c r="C6" s="2">
-        <v>596</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
@@ -507,10 +507,10 @@
         <v>46008</v>
       </c>
       <c r="C7" s="2">
-        <v>1505</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -535,7 +535,7 @@
         <v>46008</v>
       </c>
       <c r="C9" s="2">
-        <v>4</v>
+        <v>596</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>5</v>
@@ -549,7 +549,7 @@
         <v>46008</v>
       </c>
       <c r="C10" s="2">
-        <v>77</v>
+        <v>1505</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>8</v>
@@ -563,7 +563,7 @@
         <v>46008</v>
       </c>
       <c r="C11" s="2">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>5</v>
